--- a/SchedulingData/dynamic10/pso/scheduling2_4.xlsx
+++ b/SchedulingData/dynamic10/pso/scheduling2_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,40 +462,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>214.7</v>
+        <v>212.62</v>
       </c>
       <c r="D2" t="n">
-        <v>279.56</v>
+        <v>255.34</v>
       </c>
       <c r="E2" t="n">
-        <v>14.704</v>
+        <v>14.496</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>250.06</v>
+        <v>255.34</v>
       </c>
       <c r="D3" t="n">
-        <v>321.12</v>
+        <v>289.74</v>
       </c>
       <c r="E3" t="n">
-        <v>13.988</v>
+        <v>11.696</v>
       </c>
     </row>
     <row r="4">
@@ -508,32 +508,32 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>224.16</v>
+        <v>228.88</v>
       </c>
       <c r="D4" t="n">
-        <v>282.08</v>
+        <v>286.8</v>
       </c>
       <c r="E4" t="n">
-        <v>11.952</v>
+        <v>12.46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>212.92</v>
+        <v>286.8</v>
       </c>
       <c r="D5" t="n">
-        <v>266.42</v>
+        <v>335.98</v>
       </c>
       <c r="E5" t="n">
-        <v>15.888</v>
+        <v>9.651999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -542,36 +542,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>321.12</v>
+        <v>261.24</v>
       </c>
       <c r="D6" t="n">
-        <v>375.42</v>
+        <v>298.94</v>
       </c>
       <c r="E6" t="n">
-        <v>10.688</v>
+        <v>14.756</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>200.14</v>
+        <v>335.98</v>
       </c>
       <c r="D7" t="n">
-        <v>268.04</v>
+        <v>373.38</v>
       </c>
       <c r="E7" t="n">
-        <v>14.696</v>
+        <v>7.532</v>
       </c>
     </row>
     <row r="8">
@@ -580,74 +580,74 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>196</v>
+        <v>214.42</v>
       </c>
       <c r="D8" t="n">
-        <v>240.4</v>
+        <v>277.32</v>
       </c>
       <c r="E8" t="n">
-        <v>14.96</v>
+        <v>11.908</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>282.08</v>
+        <v>289.74</v>
       </c>
       <c r="D9" t="n">
-        <v>320.94</v>
+        <v>353.64</v>
       </c>
       <c r="E9" t="n">
-        <v>9.196</v>
+        <v>8.396000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>279.56</v>
+        <v>277.32</v>
       </c>
       <c r="D10" t="n">
-        <v>348.94</v>
+        <v>333.18</v>
       </c>
       <c r="E10" t="n">
-        <v>11.896</v>
+        <v>9.412000000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>348.94</v>
+        <v>298.94</v>
       </c>
       <c r="D11" t="n">
-        <v>430.28</v>
+        <v>351.98</v>
       </c>
       <c r="E11" t="n">
-        <v>8.872</v>
+        <v>12.052</v>
       </c>
     </row>
     <row r="12">
@@ -656,22 +656,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>430.28</v>
+        <v>241.7</v>
       </c>
       <c r="D12" t="n">
-        <v>488.88</v>
+        <v>296.56</v>
       </c>
       <c r="E12" t="n">
-        <v>5.632</v>
+        <v>11.504</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -679,336 +679,298 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>268.04</v>
+        <v>351.98</v>
       </c>
       <c r="D13" t="n">
-        <v>308.72</v>
+        <v>412.56</v>
       </c>
       <c r="E13" t="n">
-        <v>12.248</v>
+        <v>9.603999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>375.42</v>
+        <v>224.48</v>
       </c>
       <c r="D14" t="n">
-        <v>452.82</v>
+        <v>280.84</v>
       </c>
       <c r="E14" t="n">
-        <v>8.048</v>
+        <v>14.596</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>488.88</v>
+        <v>333.18</v>
       </c>
       <c r="D15" t="n">
-        <v>539.72</v>
+        <v>418.08</v>
       </c>
       <c r="E15" t="n">
-        <v>2.668</v>
+        <v>6.992</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>308.72</v>
+        <v>373.38</v>
       </c>
       <c r="D16" t="n">
-        <v>372.48</v>
+        <v>426.94</v>
       </c>
       <c r="E16" t="n">
-        <v>8.972</v>
+        <v>4.776</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>240.4</v>
+        <v>296.56</v>
       </c>
       <c r="D17" t="n">
-        <v>276</v>
+        <v>340.94</v>
       </c>
       <c r="E17" t="n">
-        <v>12.54</v>
+        <v>8.696</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>276</v>
+        <v>426.94</v>
       </c>
       <c r="D18" t="n">
-        <v>343.6</v>
+        <v>466.56</v>
       </c>
       <c r="E18" t="n">
-        <v>8.380000000000001</v>
+        <v>2.444</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>343.6</v>
+        <v>340.94</v>
       </c>
       <c r="D19" t="n">
-        <v>405.72</v>
+        <v>401.68</v>
       </c>
       <c r="E19" t="n">
-        <v>5.788</v>
+        <v>5.732</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>320.94</v>
+        <v>280.84</v>
       </c>
       <c r="D20" t="n">
-        <v>363.66</v>
+        <v>329.8</v>
       </c>
       <c r="E20" t="n">
-        <v>6.544</v>
+        <v>11.32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>266.42</v>
+        <v>412.56</v>
       </c>
       <c r="D21" t="n">
-        <v>297.78</v>
+        <v>454.68</v>
       </c>
       <c r="E21" t="n">
-        <v>13.392</v>
+        <v>7.012</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>372.48</v>
+        <v>418.08</v>
       </c>
       <c r="D22" t="n">
-        <v>412</v>
+        <v>460.98</v>
       </c>
       <c r="E22" t="n">
-        <v>6.64</v>
+        <v>4.832</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>297.78</v>
+        <v>454.68</v>
       </c>
       <c r="D23" t="n">
-        <v>354.38</v>
+        <v>493.34</v>
       </c>
       <c r="E23" t="n">
-        <v>11.312</v>
+        <v>4.276</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>363.66</v>
+        <v>329.8</v>
       </c>
       <c r="D24" t="n">
-        <v>406.06</v>
+        <v>388.92</v>
       </c>
       <c r="E24" t="n">
-        <v>4.424</v>
+        <v>8.988</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>405.72</v>
+        <v>388.92</v>
       </c>
       <c r="D25" t="n">
-        <v>445.1</v>
+        <v>437.52</v>
       </c>
       <c r="E25" t="n">
-        <v>2.98</v>
+        <v>5.748</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>452.82</v>
+        <v>437.52</v>
       </c>
       <c r="D26" t="n">
-        <v>510.42</v>
+        <v>479.42</v>
       </c>
       <c r="E26" t="n">
-        <v>5.888</v>
+        <v>3.668</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>354.38</v>
+        <v>353.64</v>
       </c>
       <c r="D27" t="n">
-        <v>422.94</v>
+        <v>415.08</v>
       </c>
       <c r="E27" t="n">
-        <v>8.036</v>
+        <v>5.372</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>422.94</v>
+        <v>401.68</v>
       </c>
       <c r="D28" t="n">
-        <v>480.3</v>
+        <v>485.58</v>
       </c>
       <c r="E28" t="n">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>2</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>pond23</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>412</v>
-      </c>
-      <c r="D29" t="n">
-        <v>450.34</v>
-      </c>
-      <c r="E29" t="n">
-        <v>3.936</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>4</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>pond34</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>406.06</v>
-      </c>
-      <c r="D30" t="n">
-        <v>455.68</v>
-      </c>
-      <c r="E30" t="n">
-        <v>2.092</v>
+        <v>2.432</v>
       </c>
     </row>
   </sheetData>
